--- a/DDPFDI/App_Data/Copy of Sample Format 1.xlsx
+++ b/DDPFDI/App_Data/Copy of Sample Format 1.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>NSN GROUP</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>END USER</t>
-  </si>
-  <si>
-    <t>END USER PART NUMBAR</t>
   </si>
   <si>
     <t>DPSU PART NUMBER</t>
@@ -525,19 +522,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -546,30 +543,29 @@
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.33203125" style="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="14.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -599,16 +595,16 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -623,36 +619,33 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
@@ -660,12 +653,12 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="5">
         <v>131312039000</v>
@@ -673,7 +666,9 @@
       <c r="N2" s="3">
         <v>8708</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
@@ -686,15 +681,12 @@
       <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
-        <v>37</v>
+      <c r="X2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
